--- a/biology/Botanique/Plectranthus_esculentus/Plectranthus_esculentus.xlsx
+++ b/biology/Botanique/Plectranthus_esculentus/Plectranthus_esculentus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,13 +490,15 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Plectranthus esculentus, la pomme de terre kafir[2], est une espèce de plantes dicotylédones de la famille des Lamiaceae, sous-famille des Nepetoideae, originaire d'Afrique tropicale.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Plectranthus esculentus, la pomme de terre kafir, est une espèce de plantes dicotylédones de la famille des Lamiaceae, sous-famille des Nepetoideae, originaire d'Afrique tropicale.
 Plectranthus esculentus est une plante herbacée vivace, à port dressé, pouvant atteindre un mètre de haut environ.
 Elle produit parfois des bulbilles à l'aisselle des feuilles.
 C'est une plante cultivée dans certaines régions de l'Afrique tropicale pour ses tubercules comestibles.
-En Afrique du Sud, elle est parfois cultivée comme plante ornementale[3].
+En Afrique du Sud, elle est parfois cultivée comme plante ornementale.
 </t>
         </is>
       </c>
@@ -515,11 +527,48 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce a été décrite par le botaniste britannique, Nicholas Edward Brown, et publiée en 1825 dans le Bulletin of Miscellaneous Information, Royal Gardens, Kew[4].
-Synonymes
-Selon World Flora Online (WFO)       (3 décembre 201522 janvier 2022)[5]
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été décrite par le botaniste britannique, Nicholas Edward Brown, et publiée en 1825 dans le Bulletin of Miscellaneous Information, Royal Gardens, Kew.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Plectranthus_esculentus</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Plectranthus_esculentus</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Flora Online (WFO)       (3 décembre 201522 janvier 2022)
 Coleus coppinii Heckel
 Coleus dazo A.Chev.
 Coleus esculentus (N.E.Br.) G.Taylor
